--- a/R/DataManipulation/D0_filtered_BayLum_doses.xlsx
+++ b/R/DataManipulation/D0_filtered_BayLum_doses.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Home\esellwood\Documents\3. CPJB OSL\2. Analysis\2. Analysis and BayLum Modelling\Data for Imene\Individual Var\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniren1-my.sharepoint.com/personal/elaine_sellwood_univ-rennes_fr/Documents/Post Doc-PR048038/3. CPJB OSL/Imène Models/Data for Imene/20250624 Palaeodose Computation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA9527-6637-4B4D-9950-D8D19691CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{340F7A55-CAF9-450B-92D5-F4EDC67EF792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{758A2472-03A1-4A47-A1C1-6C923961788F}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2565" windowWidth="25440" windowHeight="15270" xr2:uid="{80AF7415-E759-490E-8D0C-585C5C5F61D6}"/>
+    <workbookView xWindow="-25320" yWindow="-45" windowWidth="25440" windowHeight="15270" xr2:uid="{80AF7415-E759-490E-8D0C-585C5C5F61D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
-    <sheet name="Central doses No Strat" sheetId="1" r:id="rId2"/>
-    <sheet name="Central doses Strat and Cov" sheetId="2" r:id="rId3"/>
+    <sheet name="General stats" sheetId="7" r:id="rId2"/>
+    <sheet name="Dose Estimates" sheetId="1" r:id="rId3"/>
     <sheet name="Dose rate" sheetId="3" r:id="rId4"/>
     <sheet name="CoVar Theta Matrix " sheetId="4" r:id="rId5"/>
     <sheet name="Strat Matrix" sheetId="5" r:id="rId6"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
   <si>
     <t>lower bound at 95%</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Convergencies: uppers confidence interval</t>
   </si>
   <si>
-    <t xml:space="preserve">Layer </t>
-  </si>
-  <si>
     <t>CPJB_L7</t>
   </si>
   <si>
@@ -194,21 +191,12 @@
     <t>V15</t>
   </si>
   <si>
-    <t>Uncertainty</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
     <t>Contents</t>
   </si>
   <si>
-    <t>Central dose No strat</t>
-  </si>
-  <si>
-    <t>Central dises Strat and Cov</t>
-  </si>
-  <si>
     <t>Dose rate</t>
   </si>
   <si>
@@ -236,18 +224,172 @@
     <t xml:space="preserve">OSL data set included all grains remaining after filtering to remove feldspar grains, and then filtering to remove grains with a D0 less than the average dose. </t>
   </si>
   <si>
-    <t>Central doses and confidence intervals from BayLum. No stratigraphic constraints or shared uncertanties.</t>
-  </si>
-  <si>
-    <t>Central doses and confidence intervals from BayLum. WITH stratigraphic constraints and shared uncertanties.</t>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Depth mm</t>
+  </si>
+  <si>
+    <t>Depth (mm)</t>
+  </si>
+  <si>
+    <t>Mean De Gy</t>
+  </si>
+  <si>
+    <t>StdEr Gy</t>
+  </si>
+  <si>
+    <t>CAM De</t>
+  </si>
+  <si>
+    <t>De err</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>OD_err</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>D_CPJB_L7</t>
+  </si>
+  <si>
+    <t>D_CPJB_L8</t>
+  </si>
+  <si>
+    <t>D_CPJB_L9</t>
+  </si>
+  <si>
+    <t>D_CPJB_L10</t>
+  </si>
+  <si>
+    <t>D_CPJB_L11</t>
+  </si>
+  <si>
+    <t>D_CPJB_L12</t>
+  </si>
+  <si>
+    <t>D_CPJB_L13</t>
+  </si>
+  <si>
+    <t>D_CPJB_L14</t>
+  </si>
+  <si>
+    <t>D_CPJB_L15</t>
+  </si>
+  <si>
+    <t>D_CPJB_L16</t>
+  </si>
+  <si>
+    <t>D_CPJB_L17</t>
+  </si>
+  <si>
+    <t>D_CPJB_L18</t>
+  </si>
+  <si>
+    <t>D_CPJB_L19</t>
+  </si>
+  <si>
+    <t>D_CPJB_L20</t>
+  </si>
+  <si>
+    <t>D_CPJB_L21</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L7</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L8</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L9</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L10</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L11</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L12</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L13</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L14</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L15</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L16</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L17</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L18</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L19</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L20</t>
+  </si>
+  <si>
+    <t>sD_CPJB_L21</t>
+  </si>
+  <si>
+    <t>Dose estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results from running Palaeodose_Computation, with both results for D and sD parameters, alongside sample depth. </t>
+  </si>
+  <si>
+    <t>R Code:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_est = Palaeodose_Computation(DATA, SampleNames=Names, Nb_sample=Nb_sample, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               BinPerSample = rep(2,Nb_sample), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               SavePdf = TRUE, SaveEstimates = TRUE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               LIN_fit = TRUE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               Origin_fit = FALSE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               distribution = c("lognormal_A"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               Iter = 80000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               t = 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               n.chains = 3)</t>
+  </si>
+  <si>
+    <t>Parameter and Layer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -298,13 +440,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,557 +762,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B35458-D33F-4317-A7B0-4826D311C4DF}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCEDA09-C07F-46D9-B572-DC73A31E7828}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286BBA0C-C05D-47A3-949F-8E4252FC23E8}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="6">
+        <v>20.355560000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50.323171472868196</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.20913153190221</v>
+      </c>
+      <c r="E2">
+        <v>42.200659621808001</v>
+      </c>
+      <c r="F2">
+        <v>1.76882019995582</v>
+      </c>
+      <c r="G2">
+        <v>18.583535827231898</v>
+      </c>
+      <c r="H2">
+        <v>1.31550673012902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>64.584000000000003</v>
-      </c>
-      <c r="C2">
-        <v>70.39</v>
-      </c>
-      <c r="D2">
-        <v>79.176000000000002</v>
-      </c>
-      <c r="E2">
-        <v>85.394000000000005</v>
-      </c>
-      <c r="F2">
-        <v>94.962999999999994</v>
-      </c>
-      <c r="G2">
-        <v>15.189499999999995</v>
-      </c>
-      <c r="H2">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="I2">
-        <v>1.016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>35.610181492537301</v>
+      </c>
+      <c r="D3">
+        <v>2.1522132916491201</v>
+      </c>
+      <c r="E3">
+        <v>40.083492319967299</v>
+      </c>
+      <c r="F3">
+        <v>1.32493766448078</v>
+      </c>
+      <c r="G3">
+        <v>15.298509926644501</v>
+      </c>
+      <c r="H3">
+        <v>0.98530555115589602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>54.756999999999998</v>
-      </c>
-      <c r="C3">
-        <v>57.604999999999997</v>
-      </c>
-      <c r="D3">
-        <v>61.228999999999999</v>
-      </c>
-      <c r="E3">
-        <v>64.108000000000004</v>
-      </c>
-      <c r="F3">
-        <v>67.932000000000002</v>
-      </c>
-      <c r="G3">
-        <v>6.5875000000000021</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" s="6">
+        <v>17.271429999999999</v>
+      </c>
+      <c r="C4">
+        <v>51.130445833333297</v>
+      </c>
+      <c r="D4">
+        <v>2.39410973381018</v>
+      </c>
+      <c r="E4">
+        <v>44.675750701888802</v>
+      </c>
+      <c r="F4">
+        <v>1.66225445303532</v>
+      </c>
+      <c r="G4">
+        <v>20.534139407014699</v>
+      </c>
+      <c r="H4">
+        <v>1.22615819571145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>63.616999999999997</v>
-      </c>
-      <c r="C4">
-        <v>66.751999999999995</v>
-      </c>
-      <c r="D4">
-        <v>70.998999999999995</v>
-      </c>
-      <c r="E4">
-        <v>74.305000000000007</v>
-      </c>
-      <c r="F4">
-        <v>78.656000000000006</v>
-      </c>
-      <c r="G4">
-        <v>7.5195000000000043</v>
-      </c>
-      <c r="H4">
-        <v>1.008</v>
-      </c>
-      <c r="I4">
-        <v>1.026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="6">
+        <v>16.533329999999999</v>
+      </c>
+      <c r="C5">
+        <v>83.821841149425296</v>
+      </c>
+      <c r="D5">
+        <v>4.6362003376772902</v>
+      </c>
+      <c r="E5">
+        <v>73.220731767498194</v>
+      </c>
+      <c r="F5">
+        <v>3.30077644727958</v>
+      </c>
+      <c r="G5">
+        <v>27.964152283447302</v>
+      </c>
+      <c r="H5">
+        <v>2.4768968851864099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>91.480999999999995</v>
-      </c>
-      <c r="C5">
-        <v>94.677999999999997</v>
-      </c>
-      <c r="D5">
-        <v>98.379000000000005</v>
-      </c>
-      <c r="E5">
-        <v>101.455</v>
-      </c>
-      <c r="F5">
-        <v>105.187</v>
-      </c>
-      <c r="G5">
-        <v>6.8530000000000015</v>
-      </c>
-      <c r="H5">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="I5">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" s="6">
+        <v>14.16667</v>
+      </c>
+      <c r="C6">
+        <v>83.059006666666704</v>
+      </c>
+      <c r="D6">
+        <v>5.1978095012879599</v>
+      </c>
+      <c r="E6">
+        <v>74.324652052672903</v>
+      </c>
+      <c r="F6">
+        <v>3.1710712846737699</v>
+      </c>
+      <c r="G6">
+        <v>26.836568178943701</v>
+      </c>
+      <c r="H6">
+        <v>2.3917786323352899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>92.635000000000005</v>
-      </c>
-      <c r="C6">
-        <v>96.566000000000003</v>
-      </c>
-      <c r="D6">
-        <v>101.506</v>
-      </c>
-      <c r="E6">
-        <v>105.675</v>
-      </c>
-      <c r="F6">
-        <v>110.81100000000001</v>
-      </c>
-      <c r="G6">
-        <v>9.088000000000001</v>
-      </c>
-      <c r="H6">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="I6">
-        <v>1.0109999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" s="6">
+        <v>13.377780000000001</v>
+      </c>
+      <c r="C7">
+        <v>89.200612391304304</v>
+      </c>
+      <c r="D7">
+        <v>5.1118869333824701</v>
+      </c>
+      <c r="E7">
+        <v>81.144167582704299</v>
+      </c>
+      <c r="F7">
+        <v>2.8302963932021101</v>
+      </c>
+      <c r="G7">
+        <v>24.103227009346298</v>
+      </c>
+      <c r="H7">
+        <v>2.1918535538054602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>101.871</v>
-      </c>
-      <c r="C7">
-        <v>105.81699999999999</v>
-      </c>
-      <c r="D7">
-        <v>110.682</v>
-      </c>
-      <c r="E7">
-        <v>114.773</v>
-      </c>
-      <c r="F7">
-        <v>119.91</v>
-      </c>
-      <c r="G7">
-        <v>9.0195000000000007</v>
-      </c>
-      <c r="H7">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="I7">
-        <v>1.004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="6">
+        <v>12.377780000000001</v>
+      </c>
+      <c r="C8">
+        <v>87.931925360824707</v>
+      </c>
+      <c r="D8">
+        <v>3.4844335992081001</v>
+      </c>
+      <c r="E8">
+        <v>84.674791758557305</v>
+      </c>
+      <c r="F8">
+        <v>2.8446548182030602</v>
+      </c>
+      <c r="G8">
+        <v>24.490841446938798</v>
+      </c>
+      <c r="H8">
+        <v>2.2170269209614801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>106.48399999999999</v>
-      </c>
-      <c r="C8">
-        <v>111.881</v>
-      </c>
-      <c r="D8">
-        <v>119.657</v>
-      </c>
-      <c r="E8">
-        <v>125.36799999999999</v>
-      </c>
-      <c r="F8">
-        <v>134.02000000000001</v>
-      </c>
-      <c r="G8">
-        <v>13.768000000000008</v>
-      </c>
-      <c r="H8">
-        <v>1.022</v>
-      </c>
-      <c r="I8">
-        <v>1.0680000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" s="6">
+        <v>10.977779999999999</v>
+      </c>
+      <c r="C9">
+        <v>94.444441095890397</v>
+      </c>
+      <c r="D9">
+        <v>6.7000523761107198</v>
+      </c>
+      <c r="E9">
+        <v>80.625488884608799</v>
+      </c>
+      <c r="F9">
+        <v>3.6497355233848099</v>
+      </c>
+      <c r="G9">
+        <v>28.220724767679499</v>
+      </c>
+      <c r="H9">
+        <v>2.76838562826426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>101.43300000000001</v>
-      </c>
-      <c r="C9">
-        <v>106.429</v>
-      </c>
-      <c r="D9">
-        <v>112.932</v>
-      </c>
-      <c r="E9">
-        <v>118.227</v>
-      </c>
-      <c r="F9">
-        <v>124.967</v>
-      </c>
-      <c r="G9">
-        <v>11.766999999999996</v>
-      </c>
-      <c r="H9">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="I9">
-        <v>1.032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="6">
+        <v>9.5444400000000016</v>
+      </c>
+      <c r="C10">
+        <v>86.002081212121197</v>
+      </c>
+      <c r="D10">
+        <v>4.8652722648004199</v>
+      </c>
+      <c r="E10">
+        <v>78.3395601303679</v>
+      </c>
+      <c r="F10">
+        <v>3.2012468546242099</v>
+      </c>
+      <c r="G10">
+        <v>22.911984638010999</v>
+      </c>
+      <c r="H10">
+        <v>2.48884817287313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>91.606999999999999</v>
-      </c>
-      <c r="C10">
-        <v>95.064999999999998</v>
-      </c>
-      <c r="D10">
-        <v>99.426000000000002</v>
-      </c>
-      <c r="E10">
-        <v>102.971</v>
-      </c>
-      <c r="F10">
-        <v>107.376</v>
-      </c>
-      <c r="G10">
-        <v>7.8845000000000027</v>
-      </c>
-      <c r="H10">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="I10">
-        <v>1.0029999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" s="6">
+        <v>7.4555600000000002</v>
+      </c>
+      <c r="C11">
+        <v>85.434813333333295</v>
+      </c>
+      <c r="D11">
+        <v>3.9230700060394899</v>
+      </c>
+      <c r="E11">
+        <v>76.163685568424796</v>
+      </c>
+      <c r="F11">
+        <v>2.84528706521438</v>
+      </c>
+      <c r="G11">
+        <v>30.147825502442998</v>
+      </c>
+      <c r="H11">
+        <v>2.1389451007597802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>94.122</v>
-      </c>
-      <c r="C11">
-        <v>97.838999999999999</v>
-      </c>
-      <c r="D11">
-        <v>103.16</v>
-      </c>
-      <c r="E11">
-        <v>107.19</v>
-      </c>
-      <c r="F11">
-        <v>112.931</v>
-      </c>
-      <c r="G11">
-        <v>9.4044999999999987</v>
-      </c>
-      <c r="H11">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="I11">
-        <v>1.002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" s="6">
+        <v>6.0888899999999992</v>
+      </c>
+      <c r="C12">
+        <v>86.311082816901404</v>
+      </c>
+      <c r="D12">
+        <v>4.4866823464067203</v>
+      </c>
+      <c r="E12">
+        <v>80.204157043151397</v>
+      </c>
+      <c r="F12">
+        <v>3.4457856362151902</v>
+      </c>
+      <c r="G12">
+        <v>25.668919894465201</v>
+      </c>
+      <c r="H12">
+        <v>2.6887037891124601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>101.69499999999999</v>
-      </c>
-      <c r="C12">
-        <v>108.12</v>
-      </c>
-      <c r="D12">
-        <v>116.649</v>
-      </c>
-      <c r="E12">
-        <v>122.952</v>
-      </c>
-      <c r="F12">
-        <v>131.989</v>
-      </c>
-      <c r="G12">
-        <v>15.147000000000006</v>
-      </c>
-      <c r="H12">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="I12">
-        <v>1.0449999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" s="6">
+        <v>5.0374999999999996</v>
+      </c>
+      <c r="C13">
+        <v>104.598821428571</v>
+      </c>
+      <c r="D13">
+        <v>7.2521496960564598</v>
+      </c>
+      <c r="E13">
+        <v>93.978817286255307</v>
+      </c>
+      <c r="F13">
+        <v>4.6646823678952201</v>
+      </c>
+      <c r="G13">
+        <v>36.057982371349198</v>
+      </c>
+      <c r="H13">
+        <v>3.4933021035432401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>114.68300000000001</v>
-      </c>
-      <c r="C13">
-        <v>120.801</v>
-      </c>
-      <c r="D13">
-        <v>130.71299999999999</v>
-      </c>
-      <c r="E13">
-        <v>137.16999999999999</v>
-      </c>
-      <c r="F13">
-        <v>148.74700000000001</v>
-      </c>
-      <c r="G13">
-        <v>17.032000000000004</v>
-      </c>
-      <c r="H13">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="I13">
-        <v>1.181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" s="6">
+        <v>3.5777800000000006</v>
+      </c>
+      <c r="C14">
+        <v>91.259509523809498</v>
+      </c>
+      <c r="D14">
+        <v>4.7686747881596299</v>
+      </c>
+      <c r="E14">
+        <v>83.601824371891198</v>
+      </c>
+      <c r="F14">
+        <v>3.7760463436001102</v>
+      </c>
+      <c r="G14">
+        <v>26.597242658915899</v>
+      </c>
+      <c r="H14">
+        <v>2.9520222092359401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>101.756</v>
-      </c>
-      <c r="C14">
-        <v>106.54</v>
-      </c>
-      <c r="D14">
-        <v>113.669</v>
-      </c>
-      <c r="E14">
-        <v>119.095</v>
-      </c>
-      <c r="F14">
-        <v>126.783</v>
-      </c>
-      <c r="G14">
-        <v>12.513500000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.002</v>
-      </c>
-      <c r="I14">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15" s="6">
+        <v>2.9666700000000006</v>
+      </c>
+      <c r="C15">
+        <v>84.667853220338998</v>
+      </c>
+      <c r="D15">
+        <v>4.8347603035559699</v>
+      </c>
+      <c r="E15">
+        <v>76.568542310086798</v>
+      </c>
+      <c r="F15">
+        <v>3.7826932479216402</v>
+      </c>
+      <c r="G15">
+        <v>25.346315862808499</v>
+      </c>
+      <c r="H15">
+        <v>2.9855678765226301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>95.471000000000004</v>
-      </c>
-      <c r="C15">
-        <v>101.16200000000001</v>
-      </c>
-      <c r="D15">
-        <v>109.327</v>
-      </c>
-      <c r="E15">
-        <v>115.398</v>
-      </c>
-      <c r="F15">
-        <v>124.261</v>
-      </c>
-      <c r="G15">
-        <v>14.394999999999996</v>
-      </c>
-      <c r="H15">
-        <v>1.002</v>
-      </c>
-      <c r="I15">
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>83.864999999999995</v>
+      <c r="B16" s="6">
+        <v>2.1888900000000007</v>
       </c>
       <c r="C16">
-        <v>86.915999999999997</v>
+        <v>72.927164590163898</v>
       </c>
       <c r="D16">
-        <v>90.658000000000001</v>
+        <v>2.7899512229577801</v>
       </c>
       <c r="E16">
-        <v>93.881</v>
+        <v>70.426555736215207</v>
       </c>
       <c r="F16">
-        <v>97.688999999999993</v>
+        <v>2.57140424968284</v>
       </c>
       <c r="G16">
-        <v>6.911999999999999</v>
+        <v>15.972905707130099</v>
       </c>
       <c r="H16">
-        <v>1.008</v>
-      </c>
-      <c r="I16">
-        <v>1.0289999999999999</v>
+        <v>2.1391608315198898</v>
       </c>
     </row>
   </sheetData>
@@ -1178,493 +1318,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EA0D23-7AAC-4AA6-86E0-41F2037C1DA7}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCEDA09-C07F-46D9-B572-DC73A31E7828}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>20.355560000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>63.811999999999998</v>
+      </c>
+      <c r="F2">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>53.939</v>
+      </c>
+      <c r="F3">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>17.271429999999999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>59.1</v>
+      </c>
+      <c r="F4">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>16.533329999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>81.3</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <v>1.01</v>
+      </c>
+      <c r="J5">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>14.16667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>81.046999999999997</v>
+      </c>
+      <c r="F6">
+        <v>85</v>
+      </c>
+      <c r="G6">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>13.377780000000001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>89.64</v>
+      </c>
+      <c r="F7">
+        <v>93</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>12.377780000000001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>97.366</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>10.977779999999999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>92.212000000000003</v>
+      </c>
+      <c r="F9">
+        <v>97</v>
+      </c>
+      <c r="G9">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>1.01</v>
+      </c>
+      <c r="J9">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9.5444400000000016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>84.335999999999999</v>
+      </c>
+      <c r="F10">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>7.4555600000000002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>86.739000000000004</v>
+      </c>
+      <c r="F11">
+        <v>91</v>
+      </c>
+      <c r="G11">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>6.0888899999999992</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>87</v>
+      </c>
+      <c r="D12">
+        <v>93</v>
+      </c>
+      <c r="E12">
+        <v>100.047</v>
+      </c>
+      <c r="F12">
+        <v>106</v>
+      </c>
+      <c r="G12">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>5.0374999999999996</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13">
+        <v>98</v>
+      </c>
+      <c r="D13">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>112.61</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>129</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>3.5777800000000006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>87</v>
+      </c>
+      <c r="E14">
+        <v>93.361000000000004</v>
+      </c>
+      <c r="F14">
+        <v>99</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>2.9666700000000006</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
+      <c r="E15">
+        <v>91.558999999999997</v>
+      </c>
+      <c r="F15">
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>2.1888900000000007</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>69</v>
+      </c>
+      <c r="E16">
+        <v>73.335999999999999</v>
+      </c>
+      <c r="F16">
+        <v>76</v>
+      </c>
+      <c r="G16">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>20.355560000000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>55.131</v>
+      </c>
+      <c r="F17">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>32.826000000000001</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>17.271429999999999</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>40.262999999999998</v>
+      </c>
+      <c r="F19">
+        <v>43</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>16.533329999999999</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>33.264000000000003</v>
+      </c>
+      <c r="F20">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>1.26</v>
+      </c>
+      <c r="J20">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>14.16667</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>37.780999999999999</v>
+      </c>
+      <c r="F21">
+        <v>42</v>
+      </c>
+      <c r="G21">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>1.06</v>
+      </c>
+      <c r="J21">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>13.377780000000001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>33.277000000000001</v>
+      </c>
+      <c r="F22">
+        <v>37</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22">
+        <v>1.01</v>
+      </c>
+      <c r="J22">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>12.377780000000001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>54.334000000000003</v>
+      </c>
+      <c r="F23">
+        <v>60</v>
+      </c>
+      <c r="G23">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>1.06</v>
+      </c>
+      <c r="J23">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>10.977779999999999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <v>42.643000000000001</v>
+      </c>
+      <c r="F24">
+        <v>48</v>
+      </c>
+      <c r="G24">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>1.01</v>
+      </c>
+      <c r="J24">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>9.5444400000000016</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>27.457000000000001</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>7.4555600000000002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>45.801000000000002</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>6.0888899999999992</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>53.366999999999997</v>
+      </c>
+      <c r="F27">
+        <v>59</v>
+      </c>
+      <c r="G27">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>5.0374999999999996</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>57.539000000000001</v>
-      </c>
-      <c r="C2">
-        <v>62.07</v>
-      </c>
-      <c r="D2">
-        <v>66.298000000000002</v>
-      </c>
-      <c r="E2">
-        <v>70.495999999999995</v>
-      </c>
-      <c r="F2">
-        <v>74.966999999999999</v>
-      </c>
-      <c r="G2">
-        <f>(F2-B2)/2</f>
-        <v>8.7139999999999986</v>
-      </c>
-      <c r="H2">
-        <v>1.018</v>
-      </c>
-      <c r="I2">
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>57.932000000000002</v>
-      </c>
-      <c r="C3">
-        <v>60.948</v>
-      </c>
-      <c r="D3">
-        <v>64.393000000000001</v>
-      </c>
-      <c r="E3">
-        <v>67.451999999999998</v>
-      </c>
-      <c r="F3">
-        <v>71.138999999999996</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">(F3-B3)/2</f>
-        <v>6.6034999999999968</v>
-      </c>
-      <c r="H3">
-        <v>1.024</v>
-      </c>
-      <c r="I3">
-        <v>1.0620000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>65.039000000000001</v>
-      </c>
-      <c r="C4">
-        <v>67.914000000000001</v>
-      </c>
-      <c r="D4">
-        <v>71.927999999999997</v>
-      </c>
-      <c r="E4">
-        <v>75.028999999999996</v>
-      </c>
-      <c r="F4">
-        <v>79.263999999999996</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>7.1124999999999972</v>
-      </c>
-      <c r="H4">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="I4">
-        <v>1.1419999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>90.998999999999995</v>
-      </c>
-      <c r="C5">
-        <v>94.051000000000002</v>
-      </c>
-      <c r="D5">
-        <v>97.254000000000005</v>
-      </c>
-      <c r="E5">
-        <v>100.065</v>
-      </c>
-      <c r="F5">
-        <v>103.393</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>6.1970000000000027</v>
-      </c>
-      <c r="H5">
-        <v>1.042</v>
-      </c>
-      <c r="I5">
-        <v>1.1419999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>93.882000000000005</v>
-      </c>
-      <c r="C6">
-        <v>97.097999999999999</v>
-      </c>
-      <c r="D6">
-        <v>100.893</v>
-      </c>
-      <c r="E6">
-        <v>104.18899999999999</v>
-      </c>
-      <c r="F6">
-        <v>107.952</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>7.0349999999999966</v>
-      </c>
-      <c r="H6">
-        <v>1.028</v>
-      </c>
-      <c r="I6">
-        <v>1.0780000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>100.608</v>
-      </c>
-      <c r="C7">
-        <v>103.51300000000001</v>
-      </c>
-      <c r="D7">
-        <v>106.974</v>
-      </c>
-      <c r="E7">
-        <v>110.02800000000001</v>
-      </c>
-      <c r="F7">
-        <v>113.77200000000001</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>6.5820000000000007</v>
-      </c>
-      <c r="H7">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="I7">
-        <v>1.018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="E28">
+        <v>62.298999999999999</v>
+      </c>
+      <c r="F28">
+        <v>69</v>
+      </c>
+      <c r="G28">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>3.5777800000000006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>43.44</v>
+      </c>
+      <c r="F29">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>2.9666700000000006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>50.6</v>
+      </c>
+      <c r="F30">
+        <v>57</v>
+      </c>
+      <c r="G30">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>1.01</v>
+      </c>
+      <c r="J30">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>2.1888900000000007</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>103.595</v>
-      </c>
-      <c r="C8">
-        <v>106.925</v>
-      </c>
-      <c r="D8">
-        <v>111.09099999999999</v>
-      </c>
-      <c r="E8">
-        <v>114.56699999999999</v>
-      </c>
-      <c r="F8">
-        <v>119.08499999999999</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7.7449999999999974</v>
-      </c>
-      <c r="H8">
-        <v>1.024</v>
-      </c>
-      <c r="I8">
-        <v>1.083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>100.56100000000001</v>
-      </c>
-      <c r="C9">
-        <v>105.09099999999999</v>
-      </c>
-      <c r="D9">
-        <v>110.009</v>
-      </c>
-      <c r="E9">
-        <v>113.23399999999999</v>
-      </c>
-      <c r="F9">
-        <v>119.018</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>9.2284999999999968</v>
-      </c>
-      <c r="H9">
-        <v>1.022</v>
-      </c>
-      <c r="I9">
-        <v>1.0720000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>96.352000000000004</v>
-      </c>
-      <c r="C10">
-        <v>99.698999999999998</v>
-      </c>
-      <c r="D10">
-        <v>104.358</v>
-      </c>
-      <c r="E10">
-        <v>106.982</v>
-      </c>
-      <c r="F10">
-        <v>111.995</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7.8215000000000003</v>
-      </c>
-      <c r="H10">
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>20.683</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>1.01</v>
       </c>
-      <c r="I10">
-        <v>1.036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>98.840999999999994</v>
-      </c>
-      <c r="C11">
-        <v>102.85899999999999</v>
-      </c>
-      <c r="D11">
-        <v>108.014</v>
-      </c>
-      <c r="E11">
-        <v>110.902</v>
-      </c>
-      <c r="F11">
-        <v>116.878</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>9.0185000000000031</v>
-      </c>
-      <c r="H11">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="I11">
-        <v>1.101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>104.01300000000001</v>
-      </c>
-      <c r="C12">
-        <v>108.572</v>
-      </c>
-      <c r="D12">
-        <v>113.968</v>
-      </c>
-      <c r="E12">
-        <v>117.854</v>
-      </c>
-      <c r="F12">
-        <v>124.117</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>10.052</v>
-      </c>
-      <c r="H12">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="I12">
-        <v>1.085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>108.145</v>
-      </c>
-      <c r="C13">
-        <v>113.105</v>
-      </c>
-      <c r="D13">
-        <v>119.21899999999999</v>
-      </c>
-      <c r="E13">
-        <v>122.807</v>
-      </c>
-      <c r="F13">
-        <v>131.46299999999999</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>11.658999999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="I13">
-        <v>1.052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>104.161</v>
-      </c>
-      <c r="C14">
-        <v>109.182</v>
-      </c>
-      <c r="D14">
-        <v>115.797</v>
-      </c>
-      <c r="E14">
-        <v>118.423</v>
-      </c>
-      <c r="F14">
-        <v>126.88500000000001</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>11.362000000000002</v>
-      </c>
-      <c r="H14">
-        <v>1.034</v>
-      </c>
-      <c r="I14">
-        <v>1.115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>101.982</v>
-      </c>
-      <c r="C15">
-        <v>108.458</v>
-      </c>
-      <c r="D15">
-        <v>115.928</v>
-      </c>
-      <c r="E15">
-        <v>119.126</v>
-      </c>
-      <c r="F15">
-        <v>132.42599999999999</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>15.221999999999994</v>
-      </c>
-      <c r="H15">
-        <v>1.042</v>
-      </c>
-      <c r="I15">
-        <v>1.1259999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>93.382999999999996</v>
-      </c>
-      <c r="C16">
-        <v>98.281999999999996</v>
-      </c>
-      <c r="D16">
-        <v>104.666</v>
-      </c>
-      <c r="E16">
-        <v>107.536</v>
-      </c>
-      <c r="F16">
-        <v>115.755</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>11.186</v>
-      </c>
-      <c r="H16">
-        <v>1.022</v>
-      </c>
-      <c r="I16">
-        <v>1.044</v>
-      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1676,41 +2380,41 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1">
         <v>0.85499999999999998</v>
@@ -1719,12 +2423,12 @@
         <v>1.2449899597988732E-2</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0.46800000000000003</v>
@@ -1745,7 +2449,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1">
         <v>0.84029999999999994</v>
@@ -1754,12 +2458,12 @@
         <v>1.8814887722226777E-2</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0.15</v>
@@ -1790,7 +2494,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3">
         <v>1.6953</v>
@@ -1799,7 +2503,7 @@
         <v>2.2561028345356952E-2</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1816,761 +2520,761 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="B2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O2" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B3" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O3" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="D4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O4" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D5" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="E5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O5" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E6" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="F6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O6" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F7" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="G7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O7" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G8" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="H8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O8" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H9" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="I9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O9" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="J10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O10" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J11" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="K11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O11" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K12" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="L12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O12" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L13" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="M13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O13" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M14" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="N14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O14" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N15" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
       <c r="O15" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="B16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="E16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="F16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="G16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="H16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="J16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="K16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="L16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="M16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="N16" s="4">
-        <v>2.0661479999999999E-3</v>
+        <v>2.7100000000000002E-3</v>
       </c>
       <c r="O16" s="4">
-        <v>6.7728399999999996E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2590,49 +3294,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
